--- a/biology/Botanique/Hydrocotyle_à_ombelle/Hydrocotyle_à_ombelle.xlsx
+++ b/biology/Botanique/Hydrocotyle_à_ombelle/Hydrocotyle_à_ombelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hydrocotyle_%C3%A0_ombelle</t>
+          <t>Hydrocotyle_à_ombelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrocotyle umbellata
-L'Hydrocotyle à ombelle[1] (Hydrocotyle umbellata) est une espèce de plantes semi-aquatiques de la famille des Araliaceae. Elle est originaire de l'ensemble du continent américain. Elle est naturalisée en Europe. Elle est également cultivée.
+L'Hydrocotyle à ombelle (Hydrocotyle umbellata) est une espèce de plantes semi-aquatiques de la famille des Araliaceae. Elle est originaire de l'ensemble du continent américain. Elle est naturalisée en Europe. Elle est également cultivée.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hydrocotyle_%C3%A0_ombelle</t>
+          <t>Hydrocotyle_à_ombelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hydrocotyle à ombelle est considéré comme menacé par le comité sur la situation des espèces en péril au Canada. Ce statut est dû à sa présence qui ne se résume qu'à deux lacs de la Nouvelle-Écosse[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hydrocotyle à ombelle est considéré comme menacé par le comité sur la situation des espèces en péril au Canada. Ce statut est dû à sa présence qui ne se résume qu'à deux lacs de la Nouvelle-Écosse.
 </t>
         </is>
       </c>
